--- a/wwwroot/RegulatorExcel/InputTemplate/WhitelistReport.xlsx
+++ b/wwwroot/RegulatorExcel/InputTemplate/WhitelistReport.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27321"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Man\Desktop\SECOne_Presentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DB413C7-FCE4-4459-A807-59167F9C58AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{14104A97-332C-4691-99BB-18ECD36FF905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{58A75B75-2CD0-456E-9988-5C4E7364B431}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{58A75B75-2CD0-456E-9988-5C4E7364B431}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary_rawdata" sheetId="6" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId2"/>
-    <sheet name="appendix" sheetId="4" r:id="rId3"/>
+    <sheet name="Pivot" sheetId="7" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId3"/>
+    <sheet name="appendix" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Summary_rawdata!$A$1:$D$31</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="5313" r:id="rId4"/>
+    <pivotCache cacheId="5871" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -44,66 +45,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
-  <si>
-    <t>eventdate</t>
-  </si>
-  <si>
-    <t>warn_type</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+  <si>
+    <t>Event Date</t>
+  </si>
+  <si>
+    <t>Warning Type</t>
+  </si>
+  <si>
+    <t>SEVERITY FLAG</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Summary Data</t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Sum of Total</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>File illegally modified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illegal to boot </t>
+  </si>
+  <si>
+    <t>Insert the USB disk illegally</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Warn_type</t>
+  </si>
+  <si>
+    <t>Network access deny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insert the USB disk illegally </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illegal to modify the registry </t>
+  </si>
+  <si>
+    <t xml:space="preserve">File illegally modified </t>
+  </si>
+  <si>
+    <t>Operating system configuration changes</t>
   </si>
   <si>
     <t>SEVERITY_FLAG</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t>Sum of Total</t>
-  </si>
-  <si>
-    <t>Column Labels</t>
-  </si>
-  <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
-    <t>File illegally modified</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Illegal to boot </t>
-  </si>
-  <si>
-    <t>Insert the USB disk illegally</t>
-  </si>
-  <si>
-    <t>(blank)</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Warn_type</t>
-  </si>
-  <si>
-    <t>Network access deny</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insert the USB disk illegally </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Illegal to modify the registry </t>
-  </si>
-  <si>
-    <t xml:space="preserve">File illegally modified </t>
-  </si>
-  <si>
-    <t>Operating system configuration changes</t>
-  </si>
-  <si>
-    <t>Critical</t>
-  </si>
-  <si>
-    <t>High</t>
   </si>
   <si>
     <t xml:space="preserve">Low </t>
@@ -113,7 +123,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,8 +131,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -135,8 +161,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -161,13 +193,28 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -176,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -198,11 +245,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -698,7 +748,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{445C0E2F-6E90-4DAF-948F-D940ADBE42ED}" name="PivotTable2" cacheId="5313" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{445C0E2F-6E90-4DAF-948F-D940ADBE42ED}" name="PivotTable2" cacheId="5871" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:F35" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -1193,184 +1243,146 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62BECA70-320B-4644-ACB9-B248D981A12F}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5703125" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.7109375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="15.5703125" style="1"/>
+    <col min="5" max="5" width="15.5703125" style="1"/>
+    <col min="6" max="6" width="38" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="15.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:9" ht="32.25" customHeight="1">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16.5" customHeight="1">
+    <row r="2" spans="1:9" ht="16.5" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-    </row>
-    <row r="3" spans="1:4" ht="16.5" customHeight="1">
+    </row>
+    <row r="3" spans="1:9" ht="16.5" customHeight="1">
       <c r="A3" s="2"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-    </row>
-    <row r="4" spans="1:4" ht="16.5" customHeight="1">
+      <c r="F3" s="3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" customHeight="1">
       <c r="A4" s="2"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-    </row>
-    <row r="5" spans="1:4" ht="16.5" customHeight="1">
+      <c r="F4" s="3"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" customHeight="1">
       <c r="A5" s="2"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-    </row>
-    <row r="6" spans="1:4" ht="16.5" customHeight="1">
+      <c r="F5" s="3"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" customHeight="1">
       <c r="A6" s="2"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-    </row>
-    <row r="7" spans="1:4" ht="16.5" customHeight="1">
+      <c r="F6" s="3"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-    </row>
-    <row r="8" spans="1:4" ht="16.5" customHeight="1">
+      <c r="F7" s="3"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-    </row>
-    <row r="9" spans="1:4" ht="16.5" customHeight="1">
+    </row>
+    <row r="9" spans="1:9" ht="16.5" customHeight="1">
       <c r="A9" s="2"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-    </row>
-    <row r="10" spans="1:4" ht="16.5" customHeight="1">
+    </row>
+    <row r="10" spans="1:9" ht="16.5" customHeight="1">
       <c r="A10" s="2"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-    </row>
-    <row r="11" spans="1:4" ht="16.5" customHeight="1">
+    </row>
+    <row r="11" spans="1:9" ht="16.5" customHeight="1">
       <c r="A11" s="2"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-    </row>
-    <row r="12" spans="1:4" ht="16.5" customHeight="1">
+    </row>
+    <row r="12" spans="1:9" ht="16.5" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-    </row>
-    <row r="13" spans="1:4" ht="16.5" customHeight="1">
+    </row>
+    <row r="13" spans="1:9" ht="16.5" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-    </row>
-    <row r="14" spans="1:4" ht="16.5" customHeight="1">
+    </row>
+    <row r="14" spans="1:9" ht="16.5" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-    </row>
-    <row r="15" spans="1:4" ht="16.5" customHeight="1">
+    </row>
+    <row r="15" spans="1:9" ht="16.5" customHeight="1">
       <c r="A15" s="2"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-    </row>
-    <row r="16" spans="1:4" ht="16.5" customHeight="1">
+    </row>
+    <row r="16" spans="1:9" ht="16.5" customHeight="1">
       <c r="A16" s="2"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-    </row>
-    <row r="17" spans="1:3" ht="16.5" customHeight="1">
+    </row>
+    <row r="17" spans="1:1" ht="16.5" customHeight="1">
       <c r="A17" s="2"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-    </row>
-    <row r="18" spans="1:3" ht="16.5" customHeight="1">
+    </row>
+    <row r="18" spans="1:1" ht="16.5" customHeight="1">
       <c r="A18" s="2"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-    </row>
-    <row r="19" spans="1:3" ht="16.5" customHeight="1">
+    </row>
+    <row r="19" spans="1:1" ht="16.5" customHeight="1">
       <c r="A19" s="2"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-    </row>
-    <row r="20" spans="1:3" ht="16.5" customHeight="1">
+    </row>
+    <row r="20" spans="1:1" ht="16.5" customHeight="1">
       <c r="A20" s="2"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-    </row>
-    <row r="21" spans="1:3" ht="16.5" customHeight="1">
+    </row>
+    <row r="21" spans="1:1" ht="16.5" customHeight="1">
       <c r="A21" s="2"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-    </row>
-    <row r="22" spans="1:3" ht="16.5" customHeight="1">
+    </row>
+    <row r="22" spans="1:1" ht="16.5" customHeight="1">
       <c r="A22" s="2"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-    </row>
-    <row r="23" spans="1:3" ht="16.5" customHeight="1">
+    </row>
+    <row r="23" spans="1:1" ht="16.5" customHeight="1">
       <c r="A23" s="2"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-    </row>
-    <row r="24" spans="1:3" ht="16.5" customHeight="1">
+    </row>
+    <row r="24" spans="1:1" ht="16.5" customHeight="1">
       <c r="A24" s="2"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-    </row>
-    <row r="25" spans="1:3" ht="16.5" customHeight="1">
+    </row>
+    <row r="25" spans="1:1" ht="16.5" customHeight="1">
       <c r="A25" s="2"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-    </row>
-    <row r="26" spans="1:3" ht="16.5" customHeight="1">
+    </row>
+    <row r="26" spans="1:1" ht="16.5" customHeight="1">
       <c r="A26" s="2"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-    </row>
-    <row r="27" spans="1:3" ht="16.5" customHeight="1">
+    </row>
+    <row r="27" spans="1:1" ht="16.5" customHeight="1">
       <c r="A27" s="2"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-    </row>
-    <row r="28" spans="1:3" ht="16.5" customHeight="1">
+    </row>
+    <row r="28" spans="1:1" ht="16.5" customHeight="1">
       <c r="A28" s="2"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-    </row>
-    <row r="29" spans="1:3" ht="16.5" customHeight="1">
+    </row>
+    <row r="29" spans="1:1" ht="16.5" customHeight="1">
       <c r="A29" s="2"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-    </row>
-    <row r="30" spans="1:3" ht="16.5" customHeight="1">
+    </row>
+    <row r="30" spans="1:1" ht="16.5" customHeight="1">
       <c r="A30" s="2"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-    </row>
-    <row r="31" spans="1:3" ht="16.5" customHeight="1">
+    </row>
+    <row r="31" spans="1:1" ht="16.5" customHeight="1">
       <c r="A31" s="2"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D31" xr:uid="{62BECA70-320B-4644-ACB9-B248D981A12F}"/>
@@ -1380,6 +1392,49 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C3748A-AAED-4B07-A564-AEFD9F5106F7}">
+  <dimension ref="B2:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="44.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="30.75" customHeight="1">
+      <c r="B2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="2:5" ht="23.25" customHeight="1">
+      <c r="B3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63E5B161-34FD-4E0B-8908-1038440EEBAC}">
   <dimension ref="A1:F35"/>
   <sheetViews>
@@ -1397,30 +1452,30 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1871,12 +1926,12 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B35">
         <v>4467559</v>
@@ -1896,12 +1951,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235E5A50-EB70-45FD-8DB5-C6066713AEFA}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -1912,7 +1967,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B1" s="8"/>
     </row>
@@ -1921,7 +1976,7 @@
         <v>93</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1929,7 +1984,7 @@
         <v>96</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1937,7 +1992,7 @@
         <v>97</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1945,7 +2000,7 @@
         <v>98</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1953,7 +2008,7 @@
         <v>99</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1961,12 +2016,12 @@
         <v>102</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="8" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B8" s="8"/>
     </row>
@@ -1975,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1983,7 +2038,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1991,7 +2046,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
